--- a/doc/time_management.xlsx
+++ b/doc/time_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lian Studer\Documents\Projects\gitty\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E7F6F-7522-4649-973E-2B7C68AA34BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBB4CD3-3236-4664-AD62-7EA9C97A4B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1630,7 +1630,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2143,8 +2143,8 @@
   </sheetPr>
   <dimension ref="A1:BJ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="C9" s="41">
         <f>SUM(C10:C13)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2887,12 +2887,10 @@
       <c r="B11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="49">
-        <v>0.5</v>
-      </c>
+      <c r="C11" s="49"/>
       <c r="D11" s="82">
         <f>SUM(G11:BJ11)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="50">
         <v>1</v>
@@ -2901,9 +2899,7 @@
       <c r="G11" s="59"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="63">
-        <v>0.5</v>
-      </c>
+      <c r="J11" s="63"/>
       <c r="K11" s="84"/>
       <c r="L11" s="62"/>
       <c r="M11" s="58" t="s">
@@ -3488,7 +3484,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
@@ -3559,8 +3555,8 @@
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
@@ -5250,11 +5246,11 @@
       </c>
       <c r="C44" s="37">
         <f>C40+C37+C32+C18+C14+C9</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D44" s="37">
         <f>D40+D37+D32+D18+D14+D9</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
@@ -5272,7 +5268,7 @@
       </c>
       <c r="J44" s="39">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K44" s="39">
         <f t="shared" si="3"/>
@@ -5484,7 +5480,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0"/>
+  <sheetProtection sheet="1" formatCells="0"/>
   <mergeCells count="9">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -5548,11 +5544,11 @@
       <c r="B3" s="98"/>
       <c r="C3" s="79">
         <f>Zeitplanung!C9</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="79">
         <f>Zeitplanung!D9</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>

--- a/doc/time_management.xlsx
+++ b/doc/time_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lian Studer\Documents\Projects\gitty\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBB4CD3-3236-4664-AD62-7EA9C97A4B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66ABE21-0BBF-4C80-8B5E-7A48AB5F8C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$T$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -169,9 +169,6 @@
     <t>Anforderung #08</t>
   </si>
   <si>
-    <t>Anforderung #09</t>
-  </si>
-  <si>
     <t>Testfälle erstellen</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>KW 3</t>
   </si>
   <si>
-    <t>KW 4</t>
-  </si>
-  <si>
     <t>Meilenstein</t>
   </si>
   <si>
@@ -257,6 +251,12 @@
   </si>
   <si>
     <t>Gitty</t>
+  </si>
+  <si>
+    <t>KW 53</t>
+  </si>
+  <si>
+    <t>Dockerize + Container</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -689,19 +689,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1090,19 +1077,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -1116,7 +1090,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1138,37 +1112,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,7 +1160,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1216,7 +1190,7 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,16 +1202,16 @@
     <xf numFmtId="164" fontId="12" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1248,7 +1222,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1256,71 +1230,71 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="1" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1328,15 +1302,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1344,39 +1322,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1388,7 +1354,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1405,7 +1371,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1432,7 +1398,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1440,21 +1406,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2141,10 +2111,10 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:BJ44"/>
+  <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AP37" sqref="AP37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2263,9 +2233,9 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="85"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2395,7 +2365,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
@@ -2463,88 +2433,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="93" t="s">
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="93" t="s">
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="95" t="s">
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="93" t="s">
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="95" t="s">
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="93"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="96"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="91"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="94"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2561,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>16</v>
@@ -2749,62 +2719,62 @@
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="77"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="71"/>
+      <c r="BB9" s="71"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="71"/>
+      <c r="BG9" s="71"/>
+      <c r="BH9" s="71"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="75"/>
     </row>
     <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -2814,19 +2784,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="83"/>
+        <v>50</v>
+      </c>
+      <c r="D10" s="81"/>
       <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="87" t="s">
-        <v>55</v>
+      <c r="F10" s="85" t="s">
+        <v>53</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="89"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="56"/>
       <c r="L10" s="57"/>
       <c r="M10" s="58"/>
@@ -2844,18 +2814,18 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="58"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="58"/>
       <c r="AI10" s="53"/>
       <c r="AJ10" s="54"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="56"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
       <c r="AN10" s="57"/>
       <c r="AO10" s="58"/>
       <c r="AP10" s="53"/>
@@ -2885,10 +2855,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
         <v>0</v>
       </c>
@@ -2900,7 +2870,7 @@
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="63"/>
-      <c r="K11" s="84"/>
+      <c r="K11" s="82"/>
       <c r="L11" s="62"/>
       <c r="M11" s="58" t="s">
         <v>5</v>
@@ -2921,18 +2891,18 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="56"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
       <c r="AG11" s="57"/>
       <c r="AH11" s="58"/>
       <c r="AI11" s="59"/>
       <c r="AJ11" s="60"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="56"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
       <c r="AN11" s="57"/>
       <c r="AO11" s="58"/>
       <c r="AP11" s="59"/>
@@ -2962,12 +2932,12 @@
         <v>103</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="49">
         <v>2.5</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <f>SUM(G12:BJ12)</f>
         <v>0</v>
       </c>
@@ -2996,18 +2966,18 @@
       <c r="Y12" s="63"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="63"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
       <c r="AG12" s="57"/>
       <c r="AH12" s="58"/>
       <c r="AI12" s="59"/>
       <c r="AJ12" s="60"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="63"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
       <c r="AN12" s="57"/>
       <c r="AO12" s="58"/>
       <c r="AP12" s="59"/>
@@ -3037,17 +3007,17 @@
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="82"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>56</v>
+      <c r="F13" s="85" t="s">
+        <v>54</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3070,25 +3040,25 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="67"/>
       <c r="AI13" s="59"/>
       <c r="AJ13" s="60"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="67"/>
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="91"/>
+      <c r="AS13" s="88"/>
+      <c r="AT13" s="89"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3123,84 +3093,84 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="74"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="74"/>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="73"/>
-      <c r="BC14" s="75"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="73"/>
-      <c r="BF14" s="73"/>
-      <c r="BG14" s="73"/>
-      <c r="BH14" s="73"/>
-      <c r="BI14" s="73"/>
-      <c r="BJ14" s="77"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="71"/>
+      <c r="BB14" s="71"/>
+      <c r="BC14" s="73"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="71"/>
+      <c r="BF14" s="71"/>
+      <c r="BG14" s="71"/>
+      <c r="BH14" s="71"/>
+      <c r="BI14" s="71"/>
+      <c r="BJ14" s="75"/>
     </row>
     <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>201</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <f>SUM(G15:BJ15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="88" t="s">
-        <v>54</v>
+      <c r="F15" s="86" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
       <c r="I15" s="55"/>
       <c r="J15" s="63"/>
-      <c r="K15" s="86"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
@@ -3217,18 +3187,18 @@
       <c r="Y15" s="56"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="58"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="56"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="58"/>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="54"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="56"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="58"/>
       <c r="AP15" s="53"/>
@@ -3258,10 +3228,10 @@
         <v>202</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="49"/>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <f>SUM(G16:BJ16)</f>
         <v>0</v>
       </c>
@@ -3271,7 +3241,7 @@
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
@@ -3288,18 +3258,18 @@
       <c r="Y16" s="56"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="58"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="56"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="58"/>
       <c r="AI16" s="59"/>
       <c r="AJ16" s="60"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="56"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="58"/>
       <c r="AP16" s="59"/>
@@ -3330,7 +3300,7 @@
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="49"/>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <f>SUM(G17:BJ17)</f>
         <v>0</v>
       </c>
@@ -3357,18 +3327,18 @@
       <c r="Y17" s="56"/>
       <c r="Z17" s="57"/>
       <c r="AA17" s="58"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="56"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
       <c r="AG17" s="57"/>
       <c r="AH17" s="58"/>
       <c r="AI17" s="68"/>
       <c r="AJ17" s="69"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="56"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="58"/>
       <c r="AP17" s="68"/>
@@ -3401,81 +3371,81 @@
         <v>9</v>
       </c>
       <c r="C18" s="41">
-        <f>SUM(C19:C31)</f>
+        <f>SUM(C19:C29)</f>
         <v>0</v>
       </c>
       <c r="D18" s="42">
-        <f>SUM(D19:D31)</f>
+        <f>SUM(D19:D29)</f>
         <v>0</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="75"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="75"/>
-      <c r="BD18" s="76"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="77"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="71"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="71"/>
+      <c r="BF18" s="71"/>
+      <c r="BG18" s="71"/>
+      <c r="BH18" s="71"/>
+      <c r="BI18" s="71"/>
+      <c r="BJ18" s="75"/>
     </row>
     <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>301</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="49"/>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <f>SUM(G19:BJ19)</f>
         <v>0</v>
       </c>
@@ -3502,18 +3472,18 @@
       <c r="Y19" s="56"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="58"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="56"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="58"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="54"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="56"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
       <c r="AN19" s="57"/>
       <c r="AO19" s="58"/>
       <c r="AP19" s="53"/>
@@ -3543,11 +3513,11 @@
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="49"/>
-      <c r="D20" s="82">
-        <f t="shared" ref="D20:D31" si="0">SUM(G20:BJ20)</f>
+      <c r="D20" s="80">
+        <f t="shared" ref="D20:D29" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
       </c>
       <c r="E20" s="50"/>
@@ -3561,7 +3531,7 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="55"/>
+      <c r="P20" s="63"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
@@ -3573,18 +3543,18 @@
       <c r="Y20" s="56"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="56"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
       <c r="AG20" s="57"/>
       <c r="AH20" s="58"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="60"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="56"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
       <c r="AN20" s="57"/>
       <c r="AO20" s="58"/>
       <c r="AP20" s="59"/>
@@ -3617,7 +3587,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3633,7 +3603,7 @@
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
+      <c r="Q21" s="63"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3644,18 +3614,18 @@
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="56"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
       <c r="AG21" s="57"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="59"/>
       <c r="AJ21" s="60"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="56"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
       <c r="AN21" s="57"/>
       <c r="AO21" s="58"/>
       <c r="AP21" s="59"/>
@@ -3688,7 +3658,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="49"/>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3704,7 +3674,7 @@
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
+      <c r="Q22" s="63"/>
       <c r="R22" s="56"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -3715,18 +3685,18 @@
       <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="56"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
       <c r="AG22" s="57"/>
       <c r="AH22" s="58"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="60"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="56"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
       <c r="AN22" s="57"/>
       <c r="AO22" s="58"/>
       <c r="AP22" s="59"/>
@@ -3759,7 +3729,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="49"/>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3774,9 +3744,9 @@
       <c r="M23" s="58"/>
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="56"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
@@ -3786,18 +3756,18 @@
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="56"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
       <c r="AG23" s="57"/>
       <c r="AH23" s="58"/>
       <c r="AI23" s="59"/>
       <c r="AJ23" s="60"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="56"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
       <c r="AN23" s="57"/>
       <c r="AO23" s="58"/>
       <c r="AP23" s="59"/>
@@ -3830,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="49"/>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3847,7 +3817,7 @@
       <c r="O24" s="60"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="R24" s="87"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
@@ -3857,18 +3827,18 @@
       <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="56"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
       <c r="AG24" s="57"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="59"/>
       <c r="AJ24" s="60"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
       <c r="AN24" s="57"/>
       <c r="AO24" s="58"/>
       <c r="AP24" s="59"/>
@@ -3901,7 +3871,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="49"/>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3923,23 +3893,23 @@
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="55"/>
+      <c r="W25" s="63"/>
       <c r="X25" s="55"/>
       <c r="Y25" s="56"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="56"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
       <c r="AG25" s="57"/>
       <c r="AH25" s="58"/>
       <c r="AI25" s="59"/>
       <c r="AJ25" s="60"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="56"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
       <c r="AN25" s="57"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="59"/>
@@ -3972,7 +3942,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="49"/>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3995,22 +3965,22 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
+      <c r="X26" s="63"/>
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="56"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
       <c r="AG26" s="57"/>
       <c r="AH26" s="58"/>
       <c r="AI26" s="59"/>
       <c r="AJ26" s="60"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="56"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
       <c r="AN26" s="57"/>
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
@@ -4043,7 +4013,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="49"/>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4067,21 +4037,21 @@
       <c r="V27" s="60"/>
       <c r="W27" s="55"/>
       <c r="X27" s="55"/>
-      <c r="Y27" s="56"/>
+      <c r="Y27" s="63"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="56"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
       <c r="AG27" s="57"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="59"/>
       <c r="AJ27" s="60"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="56"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="60"/>
       <c r="AN27" s="57"/>
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
@@ -4114,7 +4084,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4141,18 +4111,18 @@
       <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="56"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
       <c r="AG28" s="57"/>
       <c r="AH28" s="58"/>
       <c r="AI28" s="59"/>
       <c r="AJ28" s="60"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="56"/>
+      <c r="AK28" s="60"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="60"/>
       <c r="AN28" s="57"/>
       <c r="AO28" s="58"/>
       <c r="AP28" s="59"/>
@@ -4179,69 +4149,67 @@
     </row>
     <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>311</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>30</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B29" s="46"/>
       <c r="C29" s="49"/>
-      <c r="D29" s="82">
+      <c r="D29" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56"/>
       <c r="L29" s="57"/>
       <c r="M29" s="58"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="71"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="69"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="56"/>
       <c r="S29" s="57"/>
       <c r="T29" s="58"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="71"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="69"/>
       <c r="W29" s="55"/>
       <c r="X29" s="55"/>
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="56"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
       <c r="AG29" s="57"/>
       <c r="AH29" s="58"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="56"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="60"/>
       <c r="AN29" s="57"/>
       <c r="AO29" s="58"/>
-      <c r="AP29" s="70"/>
-      <c r="AQ29" s="71"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="69"/>
       <c r="AR29" s="55"/>
       <c r="AS29" s="55"/>
       <c r="AT29" s="56"/>
       <c r="AU29" s="57"/>
       <c r="AV29" s="58"/>
-      <c r="AW29" s="70"/>
-      <c r="AX29" s="71"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="69"/>
       <c r="AY29" s="55"/>
       <c r="AZ29" s="55"/>
       <c r="BA29" s="56"/>
       <c r="BB29" s="57"/>
       <c r="BC29" s="58"/>
-      <c r="BD29" s="70"/>
-      <c r="BE29" s="71"/>
+      <c r="BD29" s="68"/>
+      <c r="BE29" s="69"/>
       <c r="BF29" s="55"/>
       <c r="BG29" s="55"/>
       <c r="BH29" s="56"/>
@@ -4249,135 +4217,144 @@
       <c r="BJ29" s="58"/>
     </row>
     <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="A30" s="30">
+        <v>40</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="41">
+        <f>SUM(C31:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="42">
+        <f>SUM(D31:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="70"/>
       <c r="H30" s="71"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="73"/>
       <c r="N30" s="70"/>
       <c r="O30" s="71"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="58"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="73"/>
       <c r="U30" s="70"/>
       <c r="V30" s="71"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="70"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="74"/>
       <c r="AC30" s="71"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="58"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="73"/>
       <c r="AI30" s="70"/>
       <c r="AJ30" s="71"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="58"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="71"/>
+      <c r="AN30" s="72"/>
+      <c r="AO30" s="73"/>
       <c r="AP30" s="70"/>
       <c r="AQ30" s="71"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="70"/>
+      <c r="AR30" s="71"/>
+      <c r="AS30" s="71"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="74"/>
       <c r="AX30" s="71"/>
-      <c r="AY30" s="55"/>
-      <c r="AZ30" s="55"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="58"/>
-      <c r="BD30" s="70"/>
+      <c r="AY30" s="71"/>
+      <c r="AZ30" s="71"/>
+      <c r="BA30" s="71"/>
+      <c r="BB30" s="71"/>
+      <c r="BC30" s="73"/>
+      <c r="BD30" s="74"/>
       <c r="BE30" s="71"/>
-      <c r="BF30" s="55"/>
-      <c r="BG30" s="55"/>
-      <c r="BH30" s="56"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="58"/>
+      <c r="BF30" s="71"/>
+      <c r="BG30" s="71"/>
+      <c r="BH30" s="71"/>
+      <c r="BI30" s="71"/>
+      <c r="BJ30" s="75"/>
     </row>
     <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>312</v>
-      </c>
-      <c r="B31" s="46"/>
+        <v>401</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>30</v>
+      </c>
       <c r="C31" s="49"/>
-      <c r="D31" s="82">
-        <f t="shared" si="0"/>
+      <c r="D31" s="80">
+        <f>SUM(G31:BJ31)</f>
         <v>0</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="51"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
       <c r="K31" s="56"/>
       <c r="L31" s="57"/>
       <c r="M31" s="58"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="69"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="55"/>
       <c r="R31" s="56"/>
       <c r="S31" s="57"/>
       <c r="T31" s="58"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="69"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="54"/>
       <c r="W31" s="55"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="56"/>
       <c r="Z31" s="57"/>
       <c r="AA31" s="58"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="56"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
       <c r="AG31" s="57"/>
       <c r="AH31" s="58"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="56"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
       <c r="AN31" s="57"/>
       <c r="AO31" s="58"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="69"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="54"/>
       <c r="AR31" s="55"/>
       <c r="AS31" s="55"/>
       <c r="AT31" s="56"/>
       <c r="AU31" s="57"/>
       <c r="AV31" s="58"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="69"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="54"/>
       <c r="AY31" s="55"/>
       <c r="AZ31" s="55"/>
       <c r="BA31" s="56"/>
       <c r="BB31" s="57"/>
       <c r="BC31" s="58"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="69"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="54"/>
       <c r="BF31" s="55"/>
       <c r="BG31" s="55"/>
       <c r="BH31" s="56"/>
@@ -4385,144 +4362,141 @@
       <c r="BJ31" s="58"/>
     </row>
     <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>40</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="41">
-        <f>SUM(C33:C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="42">
-        <f>SUM(D33:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="74"/>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="74"/>
-      <c r="AN32" s="74"/>
-      <c r="AO32" s="75"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="74"/>
-      <c r="AU32" s="74"/>
-      <c r="AV32" s="75"/>
-      <c r="AW32" s="76"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="73"/>
-      <c r="BA32" s="73"/>
-      <c r="BB32" s="73"/>
-      <c r="BC32" s="75"/>
-      <c r="BD32" s="76"/>
-      <c r="BE32" s="73"/>
-      <c r="BF32" s="73"/>
-      <c r="BG32" s="73"/>
-      <c r="BH32" s="73"/>
-      <c r="BI32" s="73"/>
-      <c r="BJ32" s="77"/>
+      <c r="A32" s="12">
+        <v>402</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="80">
+        <f t="shared" ref="D32:D34" si="1">SUM(G32:BJ32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="60"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="58"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="60"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="58"/>
+      <c r="AW32" s="59"/>
+      <c r="AX32" s="60"/>
+      <c r="AY32" s="55"/>
+      <c r="AZ32" s="55"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="58"/>
+      <c r="BD32" s="59"/>
+      <c r="BE32" s="60"/>
+      <c r="BF32" s="55"/>
+      <c r="BG32" s="55"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="58"/>
     </row>
     <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="82">
-        <f>SUM(G33:BJ33)</f>
+      <c r="D33" s="80">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="57"/>
       <c r="M33" s="58"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="60"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
+      <c r="R33" s="63"/>
       <c r="S33" s="57"/>
       <c r="T33" s="58"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="54"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="60"/>
       <c r="W33" s="55"/>
       <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
+      <c r="Y33" s="63"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="56"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
       <c r="AG33" s="57"/>
       <c r="AH33" s="58"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="56"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="58"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="54"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="60"/>
       <c r="AR33" s="55"/>
       <c r="AS33" s="55"/>
-      <c r="AT33" s="56"/>
+      <c r="AT33" s="99"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="54"/>
+      <c r="AW33" s="59"/>
+      <c r="AX33" s="60"/>
       <c r="AY33" s="55"/>
       <c r="AZ33" s="55"/>
       <c r="BA33" s="56"/>
       <c r="BB33" s="57"/>
       <c r="BC33" s="58"/>
-      <c r="BD33" s="53"/>
-      <c r="BE33" s="54"/>
+      <c r="BD33" s="59"/>
+      <c r="BE33" s="60"/>
       <c r="BF33" s="55"/>
       <c r="BG33" s="55"/>
       <c r="BH33" s="56"/>
@@ -4531,69 +4505,67 @@
     </row>
     <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>402</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>33</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B34" s="46"/>
       <c r="C34" s="49"/>
-      <c r="D34" s="82">
-        <f t="shared" ref="D34:D36" si="1">SUM(G34:BJ34)</f>
+      <c r="D34" s="80">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56"/>
       <c r="L34" s="57"/>
       <c r="M34" s="58"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="60"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="69"/>
       <c r="P34" s="55"/>
       <c r="Q34" s="55"/>
       <c r="R34" s="56"/>
       <c r="S34" s="57"/>
       <c r="T34" s="58"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="60"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="69"/>
       <c r="W34" s="55"/>
       <c r="X34" s="55"/>
       <c r="Y34" s="56"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="56"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
       <c r="AG34" s="57"/>
       <c r="AH34" s="58"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="56"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
       <c r="AN34" s="57"/>
       <c r="AO34" s="58"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="60"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="69"/>
       <c r="AR34" s="55"/>
       <c r="AS34" s="55"/>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="60"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="69"/>
       <c r="AY34" s="55"/>
       <c r="AZ34" s="55"/>
       <c r="BA34" s="56"/>
       <c r="BB34" s="57"/>
       <c r="BC34" s="58"/>
-      <c r="BD34" s="59"/>
-      <c r="BE34" s="60"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="69"/>
       <c r="BF34" s="55"/>
       <c r="BG34" s="55"/>
       <c r="BH34" s="56"/>
@@ -4601,139 +4573,144 @@
       <c r="BJ34" s="58"/>
     </row>
     <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>403</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="59"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="55"/>
-      <c r="AS35" s="55"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="59"/>
-      <c r="AX35" s="60"/>
-      <c r="AY35" s="55"/>
-      <c r="AZ35" s="55"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="58"/>
-      <c r="BD35" s="59"/>
-      <c r="BE35" s="60"/>
-      <c r="BF35" s="55"/>
-      <c r="BG35" s="55"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="58"/>
+      <c r="A35" s="30">
+        <v>50</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="41">
+        <f>SUM(C36:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="42">
+        <f>SUM(D36:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="70"/>
+      <c r="AJ35" s="71"/>
+      <c r="AK35" s="71"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="71"/>
+      <c r="AN35" s="72"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="70"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="71"/>
+      <c r="AS35" s="71"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="74"/>
+      <c r="AX35" s="71"/>
+      <c r="AY35" s="71"/>
+      <c r="AZ35" s="71"/>
+      <c r="BA35" s="71"/>
+      <c r="BB35" s="71"/>
+      <c r="BC35" s="73"/>
+      <c r="BD35" s="74"/>
+      <c r="BE35" s="71"/>
+      <c r="BF35" s="71"/>
+      <c r="BG35" s="71"/>
+      <c r="BH35" s="71"/>
+      <c r="BI35" s="71"/>
+      <c r="BJ35" s="75"/>
     </row>
     <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>404</v>
-      </c>
-      <c r="B36" s="46"/>
+        <v>501</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>33</v>
+      </c>
       <c r="C36" s="49"/>
-      <c r="D36" s="82">
-        <f t="shared" si="1"/>
+      <c r="D36" s="80">
+        <f>SUM(G36:BJ36)</f>
         <v>0</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="51"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="69"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="54"/>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
       <c r="K36" s="56"/>
       <c r="L36" s="57"/>
       <c r="M36" s="58"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="69"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="54"/>
       <c r="P36" s="55"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="57"/>
       <c r="T36" s="58"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="69"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="54"/>
       <c r="W36" s="55"/>
       <c r="X36" s="55"/>
       <c r="Y36" s="56"/>
       <c r="Z36" s="57"/>
       <c r="AA36" s="58"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="56"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
       <c r="AG36" s="57"/>
       <c r="AH36" s="58"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="56"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
       <c r="AN36" s="57"/>
       <c r="AO36" s="58"/>
-      <c r="AP36" s="68"/>
-      <c r="AQ36" s="69"/>
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="54"/>
       <c r="AR36" s="55"/>
       <c r="AS36" s="55"/>
       <c r="AT36" s="56"/>
       <c r="AU36" s="57"/>
       <c r="AV36" s="58"/>
-      <c r="AW36" s="68"/>
-      <c r="AX36" s="69"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="54"/>
       <c r="AY36" s="55"/>
       <c r="AZ36" s="55"/>
       <c r="BA36" s="56"/>
       <c r="BB36" s="57"/>
       <c r="BC36" s="58"/>
-      <c r="BD36" s="68"/>
-      <c r="BE36" s="69"/>
+      <c r="BD36" s="53"/>
+      <c r="BE36" s="54"/>
       <c r="BF36" s="55"/>
       <c r="BG36" s="55"/>
       <c r="BH36" s="56"/>
@@ -4741,213 +4718,213 @@
       <c r="BJ36" s="58"/>
     </row>
     <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
-        <v>50</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="41">
-        <f>SUM(C38:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="42">
-        <f>SUM(D38:D39)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="73"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="73"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="75"/>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="73"/>
-      <c r="AK37" s="73"/>
-      <c r="AL37" s="73"/>
-      <c r="AM37" s="74"/>
-      <c r="AN37" s="74"/>
-      <c r="AO37" s="75"/>
-      <c r="AP37" s="72"/>
-      <c r="AQ37" s="73"/>
-      <c r="AR37" s="73"/>
-      <c r="AS37" s="73"/>
-      <c r="AT37" s="74"/>
-      <c r="AU37" s="74"/>
-      <c r="AV37" s="75"/>
-      <c r="AW37" s="76"/>
-      <c r="AX37" s="73"/>
-      <c r="AY37" s="73"/>
-      <c r="AZ37" s="73"/>
-      <c r="BA37" s="73"/>
-      <c r="BB37" s="73"/>
-      <c r="BC37" s="75"/>
-      <c r="BD37" s="76"/>
-      <c r="BE37" s="73"/>
-      <c r="BF37" s="73"/>
-      <c r="BG37" s="73"/>
-      <c r="BH37" s="73"/>
-      <c r="BI37" s="73"/>
-      <c r="BJ37" s="77"/>
+      <c r="A37" s="12">
+        <v>502</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="80">
+        <f>SUM(G37:BJ37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="58"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="69"/>
+      <c r="AR37" s="55"/>
+      <c r="AS37" s="55"/>
+      <c r="AT37" s="56"/>
+      <c r="AU37" s="57"/>
+      <c r="AV37" s="58"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="69"/>
+      <c r="AY37" s="55"/>
+      <c r="AZ37" s="55"/>
+      <c r="BA37" s="56"/>
+      <c r="BB37" s="57"/>
+      <c r="BC37" s="58"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="69"/>
+      <c r="BF37" s="55"/>
+      <c r="BG37" s="55"/>
+      <c r="BH37" s="56"/>
+      <c r="BI37" s="57"/>
+      <c r="BJ37" s="58"/>
     </row>
     <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>501</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="82">
-        <f>SUM(G38:BJ38)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="57"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="53"/>
-      <c r="AQ38" s="54"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="55"/>
-      <c r="AT38" s="56"/>
-      <c r="AU38" s="57"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="53"/>
-      <c r="AX38" s="54"/>
-      <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
-      <c r="BA38" s="56"/>
-      <c r="BB38" s="57"/>
-      <c r="BC38" s="58"/>
-      <c r="BD38" s="53"/>
-      <c r="BE38" s="54"/>
-      <c r="BF38" s="55"/>
-      <c r="BG38" s="55"/>
-      <c r="BH38" s="56"/>
-      <c r="BI38" s="57"/>
-      <c r="BJ38" s="58"/>
+      <c r="A38" s="30">
+        <v>60</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="41">
+        <f>SUM(C39:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="42">
+        <f>SUM(D39:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="71"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="70"/>
+      <c r="AJ38" s="71"/>
+      <c r="AK38" s="71"/>
+      <c r="AL38" s="71"/>
+      <c r="AM38" s="71"/>
+      <c r="AN38" s="72"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="70"/>
+      <c r="AQ38" s="71"/>
+      <c r="AR38" s="71"/>
+      <c r="AS38" s="71"/>
+      <c r="AT38" s="72"/>
+      <c r="AU38" s="72"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="74"/>
+      <c r="AX38" s="71"/>
+      <c r="AY38" s="71"/>
+      <c r="AZ38" s="71"/>
+      <c r="BA38" s="71"/>
+      <c r="BB38" s="71"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="74"/>
+      <c r="BE38" s="71"/>
+      <c r="BF38" s="71"/>
+      <c r="BG38" s="71"/>
+      <c r="BH38" s="71"/>
+      <c r="BI38" s="71"/>
+      <c r="BJ38" s="75"/>
     </row>
     <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>502</v>
-      </c>
-      <c r="B39" s="46"/>
+        <v>601</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>36</v>
+      </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="82">
+      <c r="D39" s="80">
         <f>SUM(G39:BJ39)</f>
         <v>0</v>
       </c>
       <c r="E39" s="50"/>
       <c r="F39" s="51"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
       <c r="K39" s="56"/>
       <c r="L39" s="57"/>
       <c r="M39" s="58"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="69"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="54"/>
       <c r="P39" s="55"/>
       <c r="Q39" s="55"/>
       <c r="R39" s="56"/>
       <c r="S39" s="57"/>
       <c r="T39" s="58"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="69"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="54"/>
       <c r="W39" s="55"/>
       <c r="X39" s="55"/>
       <c r="Y39" s="56"/>
       <c r="Z39" s="57"/>
       <c r="AA39" s="58"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="55"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="56"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
       <c r="AG39" s="57"/>
       <c r="AH39" s="58"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="56"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="60"/>
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="60"/>
       <c r="AN39" s="57"/>
       <c r="AO39" s="58"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="69"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="54"/>
       <c r="AR39" s="55"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="56"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
       <c r="AU39" s="57"/>
       <c r="AV39" s="58"/>
-      <c r="AW39" s="68"/>
-      <c r="AX39" s="69"/>
+      <c r="AW39" s="53"/>
+      <c r="AX39" s="54"/>
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
       <c r="BA39" s="56"/>
       <c r="BB39" s="57"/>
       <c r="BC39" s="58"/>
-      <c r="BD39" s="68"/>
-      <c r="BE39" s="69"/>
+      <c r="BD39" s="53"/>
+      <c r="BE39" s="54"/>
       <c r="BF39" s="55"/>
       <c r="BG39" s="55"/>
       <c r="BH39" s="56"/>
@@ -4955,527 +4932,384 @@
       <c r="BJ39" s="58"/>
     </row>
     <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
-        <v>60</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="41">
-        <f>SUM(C41:C43)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="42">
-        <f>SUM(D41:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="76"/>
-      <c r="AC40" s="73"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="73"/>
-      <c r="AF40" s="74"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="73"/>
-      <c r="AK40" s="73"/>
-      <c r="AL40" s="73"/>
-      <c r="AM40" s="74"/>
-      <c r="AN40" s="74"/>
-      <c r="AO40" s="75"/>
-      <c r="AP40" s="72"/>
-      <c r="AQ40" s="73"/>
-      <c r="AR40" s="73"/>
-      <c r="AS40" s="73"/>
-      <c r="AT40" s="74"/>
-      <c r="AU40" s="74"/>
-      <c r="AV40" s="75"/>
-      <c r="AW40" s="76"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="73"/>
-      <c r="BA40" s="73"/>
-      <c r="BB40" s="73"/>
-      <c r="BC40" s="75"/>
-      <c r="BD40" s="76"/>
-      <c r="BE40" s="73"/>
-      <c r="BF40" s="73"/>
-      <c r="BG40" s="73"/>
-      <c r="BH40" s="73"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="77"/>
+      <c r="A40" s="12">
+        <v>602</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="80">
+        <f t="shared" ref="D40:D41" si="2">SUM(G40:BJ40)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="60"/>
+      <c r="AN40" s="57"/>
+      <c r="AO40" s="58"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="60"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55"/>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="57"/>
+      <c r="AV40" s="58"/>
+      <c r="AW40" s="59"/>
+      <c r="AX40" s="60"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BA40" s="56"/>
+      <c r="BB40" s="57"/>
+      <c r="BC40" s="58"/>
+      <c r="BD40" s="59"/>
+      <c r="BE40" s="60"/>
+      <c r="BF40" s="55"/>
+      <c r="BG40" s="55"/>
+      <c r="BH40" s="56"/>
+      <c r="BI40" s="57"/>
+      <c r="BJ40" s="58"/>
     </row>
     <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C41" s="49"/>
-      <c r="D41" s="82">
-        <f>SUM(G41:BJ41)</f>
+      <c r="D41" s="80">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="56"/>
       <c r="L41" s="57"/>
       <c r="M41" s="58"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="54"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="69"/>
       <c r="P41" s="55"/>
       <c r="Q41" s="55"/>
       <c r="R41" s="56"/>
       <c r="S41" s="57"/>
       <c r="T41" s="58"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="54"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="69"/>
       <c r="W41" s="55"/>
       <c r="X41" s="55"/>
       <c r="Y41" s="56"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="58"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="56"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
       <c r="AG41" s="57"/>
       <c r="AH41" s="58"/>
-      <c r="AI41" s="53"/>
-      <c r="AJ41" s="54"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="56"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="69"/>
+      <c r="AK41" s="60"/>
+      <c r="AL41" s="60"/>
+      <c r="AM41" s="60"/>
       <c r="AN41" s="57"/>
       <c r="AO41" s="58"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
+      <c r="AP41" s="68"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
       <c r="AT41" s="56"/>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
-      <c r="AW41" s="53"/>
-      <c r="AX41" s="54"/>
+      <c r="AW41" s="68"/>
+      <c r="AX41" s="69"/>
       <c r="AY41" s="55"/>
       <c r="AZ41" s="55"/>
       <c r="BA41" s="56"/>
       <c r="BB41" s="57"/>
       <c r="BC41" s="58"/>
-      <c r="BD41" s="53"/>
-      <c r="BE41" s="54"/>
+      <c r="BD41" s="68"/>
+      <c r="BE41" s="69"/>
       <c r="BF41" s="55"/>
       <c r="BG41" s="55"/>
       <c r="BH41" s="56"/>
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>602</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="82">
-        <f t="shared" ref="D42:D43" si="2">SUM(G42:BJ42)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="59"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="56"/>
-      <c r="AN42" s="57"/>
-      <c r="AO42" s="58"/>
-      <c r="AP42" s="59"/>
-      <c r="AQ42" s="60"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
-      <c r="AT42" s="56"/>
-      <c r="AU42" s="57"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="59"/>
-      <c r="AX42" s="60"/>
-      <c r="AY42" s="55"/>
-      <c r="AZ42" s="55"/>
-      <c r="BA42" s="56"/>
-      <c r="BB42" s="57"/>
-      <c r="BC42" s="58"/>
-      <c r="BD42" s="59"/>
-      <c r="BE42" s="60"/>
-      <c r="BF42" s="55"/>
-      <c r="BG42" s="55"/>
-      <c r="BH42" s="56"/>
-      <c r="BI42" s="57"/>
-      <c r="BJ42" s="58"/>
-    </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>603</v>
-      </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="58"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="69"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="56"/>
-      <c r="AN43" s="57"/>
-      <c r="AO43" s="58"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="69"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="55"/>
-      <c r="AT43" s="56"/>
-      <c r="AU43" s="57"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="68"/>
-      <c r="AX43" s="69"/>
-      <c r="AY43" s="55"/>
-      <c r="AZ43" s="55"/>
-      <c r="BA43" s="56"/>
-      <c r="BB43" s="57"/>
-      <c r="BC43" s="58"/>
-      <c r="BD43" s="68"/>
-      <c r="BE43" s="69"/>
-      <c r="BF43" s="55"/>
-      <c r="BG43" s="55"/>
-      <c r="BH43" s="56"/>
-      <c r="BI43" s="57"/>
-      <c r="BJ43" s="58"/>
-    </row>
-    <row r="44" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36" t="s">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="37">
-        <f>C40+C37+C32+C18+C14+C9</f>
+      <c r="C42" s="37">
+        <f>C38+C35+C30+C18+C14+C9</f>
         <v>2.5</v>
       </c>
-      <c r="D44" s="37">
-        <f>D40+D37+D32+D18+D14+D9</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39">
-        <f>SUM(G9:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="39">
-        <f t="shared" ref="H44:AL44" si="3">SUM(H9:H43)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="39">
+      <c r="D42" s="37">
+        <f>D38+D35+D30+D18+D14+D9</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39">
+        <f>SUM(G9:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="39">
+        <f>SUM(H9:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="39">
+        <f>SUM(I9:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="39">
+        <f>SUM(J9:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="39">
+        <f>SUM(K9:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="39">
+        <f>SUM(L9:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="39">
+        <f>SUM(M9:M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="39">
+        <f>SUM(N9:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="39">
+        <f>SUM(O9:O41)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="39">
+        <f>SUM(P9:P41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="39">
+        <f>SUM(Q9:Q41)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="39">
+        <f>SUM(R9:R41)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="39">
+        <f>SUM(S9:S41)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="39">
+        <f>SUM(T9:T41)</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="39">
+        <f>SUM(U9:U41)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="39">
+        <f>SUM(V9:V41)</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="39">
+        <f>SUM(W9:W41)</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="39">
+        <f>SUM(X9:X41)</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="39">
+        <f>SUM(Y9:Y41)</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="39">
+        <f>SUM(Z9:Z41)</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="39">
+        <f>SUM(AA9:AA41)</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="39">
+        <f>SUM(AB9:AB41)</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="39">
+        <f>SUM(AC9:AC41)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="39">
+        <f>SUM(AD9:AD41)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="39">
+        <f>SUM(AE9:AE41)</f>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="39">
+        <f>SUM(AF9:AF41)</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="39">
+        <f>SUM(AG9:AG41)</f>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="39">
+        <f>SUM(AH9:AH41)</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="39">
+        <f>SUM(AI9:AI41)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="39">
+        <f>SUM(AJ9:AJ41)</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="39">
+        <f>SUM(AK9:AK41)</f>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="39">
+        <f>SUM(AL9:AL41)</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="39">
+        <f>SUM(AM9:AM41)</f>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="39">
+        <f>SUM(AN9:AN41)</f>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="39">
+        <f>SUM(AO9:AO41)</f>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="39">
+        <f>SUM(AP9:AP41)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="39">
+        <f>SUM(AQ9:AQ41)</f>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="39">
+        <f>SUM(AR9:AR41)</f>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="39">
+        <f>SUM(AS9:AS41)</f>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="39">
+        <f>SUM(AT9:AT41)</f>
+        <v>0</v>
+      </c>
+      <c r="AU42" s="39">
+        <f>SUM(AU9:AU41)</f>
+        <v>0</v>
+      </c>
+      <c r="AV42" s="39">
+        <f>SUM(AV9:AV41)</f>
+        <v>0</v>
+      </c>
+      <c r="AW42" s="39">
+        <f>SUM(AW9:AW41)</f>
+        <v>0</v>
+      </c>
+      <c r="AX42" s="39">
+        <f>SUM(AX9:AX41)</f>
+        <v>0</v>
+      </c>
+      <c r="AY42" s="39">
+        <f>SUM(AY9:AY41)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="39">
+        <f>SUM(AZ9:AZ41)</f>
+        <v>0</v>
+      </c>
+      <c r="BA42" s="39">
+        <f>SUM(BA9:BA41)</f>
+        <v>0</v>
+      </c>
+      <c r="BB42" s="39">
+        <f>SUM(BB9:BB41)</f>
+        <v>0</v>
+      </c>
+      <c r="BC42" s="39">
+        <f>SUM(BC9:BC41)</f>
+        <v>0</v>
+      </c>
+      <c r="BD42" s="39">
+        <f>SUM(BD9:BD41)</f>
+        <v>0</v>
+      </c>
+      <c r="BE42" s="39">
+        <f t="shared" ref="BE42:BJ42" si="3">SUM(BE9:BE41)</f>
+        <v>0</v>
+      </c>
+      <c r="BF42" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J44" s="39">
+      <c r="BG42" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K44" s="39">
+      <c r="BH42" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L44" s="39">
+      <c r="BI42" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M44" s="39">
+      <c r="BJ42" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM44" s="39">
-        <f t="shared" ref="AM44:BD44" si="4">SUM(AM9:AM43)</f>
-        <v>0</v>
-      </c>
-      <c r="AN44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AU44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AX44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AZ44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BA44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BB44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD44" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE44" s="39">
-        <f t="shared" ref="BE44:BJ44" si="5">SUM(BE9:BE43)</f>
-        <v>0</v>
-      </c>
-      <c r="BF44" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG44" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BH44" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI44" s="39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ44" s="40">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5525,115 +5359,115 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="str">
+      <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="79">
+      <c r="B3" s="96"/>
+      <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>2.5</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
         <v>0</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="80"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="str">
+      <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="79">
+      <c r="B4" s="96"/>
+      <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>0</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <f>Zeitplanung!D14</f>
         <v>0</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="80"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="str">
+      <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="79">
+      <c r="B5" s="96"/>
+      <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>0</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
         <v>0</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="80"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="str">
-        <f>Zeitplanung!B32</f>
+      <c r="A6" s="95" t="str">
+        <f>Zeitplanung!B30</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="79">
-        <f>Zeitplanung!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="79">
-        <f>Zeitplanung!D32</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="80"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="77">
+        <f>Zeitplanung!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="77">
+        <f>Zeitplanung!D30</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="str">
-        <f>Zeitplanung!B37</f>
+      <c r="A7" s="95" t="str">
+        <f>Zeitplanung!B35</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="79">
-        <f>Zeitplanung!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="79">
-        <f>Zeitplanung!D37</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="80"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="77">
+        <f>Zeitplanung!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="77">
+        <f>Zeitplanung!D35</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="str">
-        <f>Zeitplanung!B40</f>
+      <c r="A8" s="95" t="str">
+        <f>Zeitplanung!B38</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="79">
-        <f>Zeitplanung!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="79">
-        <f>Zeitplanung!D40</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="80"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="77">
+        <f>Zeitplanung!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="77">
+        <f>Zeitplanung!D38</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/doc/time_management.xlsx
+++ b/doc/time_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lian Studer\Documents\Projects\gitty\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66ABE21-0BBF-4C80-8B5E-7A48AB5F8C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4117C-AE2A-4D66-9383-F7983522D2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1391,40 +1391,40 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1526,22 +1526,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,13 +1600,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1615,7 +1615,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,8 +2113,8 @@
   </sheetPr>
   <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP37" sqref="AP37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2433,88 +2433,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="91" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="91" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93" t="s">
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="91" t="s">
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93" t="s">
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="91" t="s">
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="93" t="s">
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="94"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="92"/>
+      <c r="BG7" s="92"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="95"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2711,11 +2711,11 @@
       </c>
       <c r="C9" s="41">
         <f>SUM(C10:C13)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2796,7 +2796,9 @@
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="87"/>
+      <c r="J10" s="87">
+        <v>4</v>
+      </c>
       <c r="K10" s="56"/>
       <c r="L10" s="57"/>
       <c r="M10" s="58"/>
@@ -2857,10 +2859,12 @@
       <c r="B11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="49">
+        <v>0.5</v>
+      </c>
       <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="50">
         <v>1</v>
@@ -2869,7 +2873,9 @@
       <c r="G11" s="59"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="63"/>
+      <c r="J11" s="63">
+        <v>0.5</v>
+      </c>
       <c r="K11" s="82"/>
       <c r="L11" s="62"/>
       <c r="M11" s="58" t="s">
@@ -2877,7 +2883,9 @@
       </c>
       <c r="N11" s="59"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
+      <c r="P11" s="63">
+        <v>0.5</v>
+      </c>
       <c r="Q11" s="61"/>
       <c r="R11" s="56"/>
       <c r="S11" s="57"/>
@@ -2939,7 +2947,7 @@
       </c>
       <c r="D12" s="80">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -2949,7 +2957,9 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="63">
+        <v>0.25</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
@@ -3085,11 +3095,11 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3157,10 +3167,12 @@
       <c r="B15" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="49">
+        <v>2</v>
+      </c>
       <c r="D15" s="80">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="86" t="s">
@@ -3169,7 +3181,9 @@
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
       <c r="I15" s="55"/>
-      <c r="J15" s="63"/>
+      <c r="J15" s="63">
+        <v>1.5</v>
+      </c>
       <c r="K15" s="84"/>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
@@ -3230,10 +3244,12 @@
       <c r="B16" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="49">
+        <v>3</v>
+      </c>
       <c r="D16" s="80">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
@@ -3241,7 +3257,9 @@
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
-      <c r="K16" s="63"/>
+      <c r="K16" s="63">
+        <v>3</v>
+      </c>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
@@ -3372,11 +3390,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C29)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D29)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3444,17 +3462,21 @@
       <c r="B19" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="49">
+        <v>1</v>
+      </c>
       <c r="D19" s="80">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="63"/>
+      <c r="J19" s="63">
+        <v>0.75</v>
+      </c>
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
@@ -3515,18 +3537,24 @@
       <c r="B20" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="49">
+        <v>5</v>
+      </c>
       <c r="D20" s="80">
         <f t="shared" ref="D20:D29" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+      <c r="J20" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="63">
+        <v>3</v>
+      </c>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
@@ -3586,7 +3614,9 @@
       <c r="B21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="49">
+        <v>2</v>
+      </c>
       <c r="D21" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3657,7 +3687,9 @@
       <c r="B22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="49">
+        <v>4</v>
+      </c>
       <c r="D22" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3728,7 +3760,9 @@
       <c r="B23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="49">
+        <v>4</v>
+      </c>
       <c r="D23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3799,7 +3833,9 @@
       <c r="B24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="49">
+        <v>5</v>
+      </c>
       <c r="D24" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3870,7 +3906,9 @@
       <c r="B25" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="49">
+        <v>4</v>
+      </c>
       <c r="D25" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3941,7 +3979,9 @@
       <c r="B26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="49">
+        <v>4</v>
+      </c>
       <c r="D26" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4012,7 +4052,9 @@
       <c r="B27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="49">
+        <v>4</v>
+      </c>
       <c r="D27" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4083,7 +4125,9 @@
       <c r="B28" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="49">
+        <v>4</v>
+      </c>
       <c r="D28" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4225,7 +4269,7 @@
       </c>
       <c r="C30" s="41">
         <f>SUM(C31:C34)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D30" s="42">
         <f>SUM(D31:D34)</f>
@@ -4297,7 +4341,9 @@
       <c r="B31" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="49">
+        <v>4</v>
+      </c>
       <c r="D31" s="80">
         <f>SUM(G31:BJ31)</f>
         <v>0</v>
@@ -4368,7 +4414,9 @@
       <c r="B32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="49">
+        <v>4</v>
+      </c>
       <c r="D32" s="80">
         <f t="shared" ref="D32:D34" si="1">SUM(G32:BJ32)</f>
         <v>0</v>
@@ -4379,7 +4427,7 @@
       <c r="H32" s="60"/>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="57"/>
       <c r="M32" s="58"/>
       <c r="N32" s="59"/>
@@ -4439,7 +4487,9 @@
       <c r="B33" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="49">
+        <v>3</v>
+      </c>
       <c r="D33" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4450,12 +4500,12 @@
       <c r="H33" s="60"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
-      <c r="K33" s="63"/>
+      <c r="K33" s="55"/>
       <c r="L33" s="57"/>
       <c r="M33" s="58"/>
       <c r="N33" s="59"/>
       <c r="O33" s="60"/>
-      <c r="P33" s="55"/>
+      <c r="P33" s="63"/>
       <c r="Q33" s="55"/>
       <c r="R33" s="63"/>
       <c r="S33" s="57"/>
@@ -4485,7 +4535,7 @@
       <c r="AQ33" s="60"/>
       <c r="AR33" s="55"/>
       <c r="AS33" s="55"/>
-      <c r="AT33" s="99"/>
+      <c r="AT33" s="90"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -4519,7 +4569,7 @@
       <c r="H34" s="69"/>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="57"/>
       <c r="M34" s="58"/>
       <c r="N34" s="68"/>
@@ -4795,11 +4845,11 @@
       </c>
       <c r="C38" s="41">
         <f>SUM(C39:C41)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D38" s="42">
         <f>SUM(D39:D41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="31"/>
@@ -4867,7 +4917,9 @@
       <c r="B39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="49">
+        <v>5</v>
+      </c>
       <c r="D39" s="80">
         <f>SUM(G39:BJ39)</f>
         <v>0</v>
@@ -4938,7 +4990,9 @@
       <c r="B40" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="49">
+        <v>2</v>
+      </c>
       <c r="D40" s="80">
         <f t="shared" ref="D40:D41" si="2">SUM(G40:BJ40)</f>
         <v>0</v>
@@ -5009,10 +5063,12 @@
       <c r="B41" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="49">
+        <v>5</v>
+      </c>
       <c r="D41" s="80">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
@@ -5020,7 +5076,9 @@
       <c r="H41" s="69"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
-      <c r="K41" s="56"/>
+      <c r="K41" s="63">
+        <v>1</v>
+      </c>
       <c r="L41" s="57"/>
       <c r="M41" s="58"/>
       <c r="N41" s="68"/>
@@ -5080,236 +5138,236 @@
       </c>
       <c r="C42" s="37">
         <f>C38+C35+C30+C18+C14+C9</f>
-        <v>2.5</v>
+        <v>68</v>
       </c>
       <c r="D42" s="37">
         <f>D38+D35+D30+D18+D14+D9</f>
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
       <c r="G42" s="39">
-        <f>SUM(G9:G41)</f>
+        <f t="shared" ref="G42:AL42" si="3">SUM(G9:G41)</f>
         <v>0</v>
       </c>
       <c r="H42" s="39">
-        <f>SUM(H9:H41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="39">
-        <f>SUM(I9:I41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42" s="39">
-        <f>SUM(J9:J41)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="K42" s="39">
-        <f>SUM(K9:K41)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.25</v>
       </c>
       <c r="L42" s="39">
-        <f>SUM(L9:L41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M42" s="39">
-        <f>SUM(M9:M41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N42" s="39">
-        <f>SUM(N9:N41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O42" s="39">
-        <f>SUM(O9:O41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P42" s="39">
-        <f>SUM(P9:P41)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="Q42" s="39">
-        <f>SUM(Q9:Q41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R42" s="39">
-        <f>SUM(R9:R41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S42" s="39">
-        <f>SUM(S9:S41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T42" s="39">
-        <f>SUM(T9:T41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U42" s="39">
-        <f>SUM(U9:U41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V42" s="39">
-        <f>SUM(V9:V41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W42" s="39">
-        <f>SUM(W9:W41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X42" s="39">
-        <f>SUM(X9:X41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y42" s="39">
-        <f>SUM(Y9:Y41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z42" s="39">
-        <f>SUM(Z9:Z41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA42" s="39">
-        <f>SUM(AA9:AA41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB42" s="39">
-        <f>SUM(AB9:AB41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC42" s="39">
-        <f>SUM(AC9:AC41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD42" s="39">
-        <f>SUM(AD9:AD41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE42" s="39">
-        <f>SUM(AE9:AE41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF42" s="39">
-        <f>SUM(AF9:AF41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG42" s="39">
-        <f>SUM(AG9:AG41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH42" s="39">
-        <f>SUM(AH9:AH41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI42" s="39">
-        <f>SUM(AI9:AI41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="39">
-        <f>SUM(AJ9:AJ41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK42" s="39">
-        <f>SUM(AK9:AK41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL42" s="39">
-        <f>SUM(AL9:AL41)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM42" s="39">
-        <f>SUM(AM9:AM41)</f>
+        <f t="shared" ref="AM42:BR42" si="4">SUM(AM9:AM41)</f>
         <v>0</v>
       </c>
       <c r="AN42" s="39">
-        <f>SUM(AN9:AN41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO42" s="39">
-        <f>SUM(AO9:AO41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP42" s="39">
-        <f>SUM(AP9:AP41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="39">
-        <f>SUM(AQ9:AQ41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR42" s="39">
-        <f>SUM(AR9:AR41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS42" s="39">
-        <f>SUM(AS9:AS41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT42" s="39">
-        <f>SUM(AT9:AT41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU42" s="39">
-        <f>SUM(AU9:AU41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV42" s="39">
-        <f>SUM(AV9:AV41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW42" s="39">
-        <f>SUM(AW9:AW41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX42" s="39">
-        <f>SUM(AX9:AX41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY42" s="39">
-        <f>SUM(AY9:AY41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AZ42" s="39">
-        <f>SUM(AZ9:AZ41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BA42" s="39">
-        <f>SUM(BA9:BA41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB42" s="39">
-        <f>SUM(BB9:BB41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BC42" s="39">
-        <f>SUM(BC9:BC41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BD42" s="39">
-        <f>SUM(BD9:BD41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE42" s="39">
-        <f t="shared" ref="BE42:BJ42" si="3">SUM(BE9:BE41)</f>
+        <f t="shared" ref="BE42:BJ42" si="5">SUM(BE9:BE41)</f>
         <v>0</v>
       </c>
       <c r="BF42" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG42" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH42" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI42" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ42" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5359,10 +5417,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="76" t="s">
         <v>14</v>
       </c>
@@ -5371,65 +5429,65 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="str">
+      <c r="A3" s="96" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="str">
+      <c r="A4" s="96" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="77">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="str">
+      <c r="A5" s="96" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="str">
+      <c r="A6" s="96" t="str">
         <f>Zeitplanung!B30</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C30</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="77">
         <f>Zeitplanung!D30</f>
@@ -5438,11 +5496,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="str">
+      <c r="A7" s="96" t="str">
         <f>Zeitplanung!B35</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C35</f>
         <v>0</v>
@@ -5454,18 +5512,18 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="str">
+      <c r="A8" s="96" t="str">
         <f>Zeitplanung!B38</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C38</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="77">
         <f>Zeitplanung!D38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="78"/>
     </row>

--- a/doc/time_management.xlsx
+++ b/doc/time_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lian Studer\Documents\Projects\gitty\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4117C-AE2A-4D66-9383-F7983522D2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D9DC2-4EB5-41F2-9B32-4CB717DAFA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1606,10 +1606,10 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2113,8 +2113,8 @@
   </sheetPr>
   <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D29)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" ref="D20:D29" si="0">SUM(G20:BJ20)</f>
-        <v>3.25</v>
+        <v>8.25</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3559,8 +3559,12 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="55"/>
+      <c r="P20" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="55">
+        <v>3</v>
+      </c>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3619,7 +3623,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3633,7 +3637,9 @@
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
-      <c r="Q21" s="63"/>
+      <c r="Q21" s="63">
+        <v>2</v>
+      </c>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3706,7 +3712,9 @@
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
-      <c r="Q22" s="63"/>
+      <c r="Q22" s="63">
+        <v>0</v>
+      </c>
       <c r="R22" s="56"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -4273,7 +4281,7 @@
       </c>
       <c r="D30" s="42">
         <f>SUM(D31:D34)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="31"/>
@@ -4492,7 +4500,7 @@
       </c>
       <c r="D33" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4505,8 +4513,12 @@
       <c r="M33" s="58"/>
       <c r="N33" s="59"/>
       <c r="O33" s="60"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="55"/>
+      <c r="P33" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="Q33" s="55">
+        <v>3</v>
+      </c>
       <c r="R33" s="63"/>
       <c r="S33" s="57"/>
       <c r="T33" s="58"/>
@@ -5142,7 +5154,7 @@
       </c>
       <c r="D42" s="37">
         <f>D38+D35+D30+D18+D14+D9</f>
-        <v>10.75</v>
+        <v>27.25</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -5184,11 +5196,11 @@
       </c>
       <c r="P42" s="39">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R42" s="39">
         <f t="shared" si="3"/>
@@ -5275,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="39">
-        <f t="shared" ref="AM42:BR42" si="4">SUM(AM9:AM41)</f>
+        <f t="shared" ref="AM42:BD42" si="4">SUM(AM9:AM41)</f>
         <v>0</v>
       </c>
       <c r="AN42" s="39">
@@ -5474,7 +5486,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -5491,7 +5503,7 @@
       </c>
       <c r="D6" s="77">
         <f>Zeitplanung!D30</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F6" s="78"/>
     </row>

--- a/doc/time_management.xlsx
+++ b/doc/time_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lian Studer\Documents\Projects\gitty\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D9DC2-4EB5-41F2-9B32-4CB717DAFA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC459DD-30B2-46E4-AD5B-0306E4B980BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1606,10 +1606,10 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:BJ42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D29)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3638,7 +3638,7 @@
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3713,7 +3713,7 @@
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R22" s="56"/>
       <c r="S22" s="57"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="D30" s="42">
         <f>SUM(D31:D34)</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="31"/>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="D33" s="80">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4514,7 +4514,7 @@
       <c r="N33" s="59"/>
       <c r="O33" s="60"/>
       <c r="P33" s="63">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="55">
         <v>3</v>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="D42" s="37">
         <f>D38+D35+D30+D18+D14+D9</f>
-        <v>27.25</v>
+        <v>27.75</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -5196,11 +5196,11 @@
       </c>
       <c r="P42" s="39">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q42" s="39">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R42" s="39">
         <f t="shared" si="3"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="D6" s="77">
         <f>Zeitplanung!D30</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F6" s="78"/>
     </row>

--- a/doc/time_management.xlsx
+++ b/doc/time_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lian Studer\Documents\Projects\gitty\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC459DD-30B2-46E4-AD5B-0306E4B980BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0746ED88-F579-413B-A200-376BFAF35DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1606,10 +1606,10 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2113,8 +2113,8 @@
   </sheetPr>
   <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2966,7 +2966,9 @@
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="63">
+        <v>0</v>
+      </c>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
       <c r="U12" s="59"/>
@@ -3394,7 +3396,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D29)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3623,7 +3625,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3640,7 +3642,9 @@
       <c r="Q21" s="63">
         <v>2.5</v>
       </c>
-      <c r="R21" s="56"/>
+      <c r="R21" s="56">
+        <v>2</v>
+      </c>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
@@ -3698,7 +3702,7 @@
       </c>
       <c r="D22" s="80">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3715,7 +3719,9 @@
       <c r="Q22" s="63">
         <v>0.5</v>
       </c>
-      <c r="R22" s="56"/>
+      <c r="R22" s="56">
+        <v>4</v>
+      </c>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
@@ -3788,7 +3794,9 @@
       <c r="O23" s="60"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
-      <c r="R23" s="63"/>
+      <c r="R23" s="63">
+        <v>0</v>
+      </c>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
@@ -4281,7 +4289,7 @@
       </c>
       <c r="D30" s="42">
         <f>SUM(D31:D34)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="31"/>
@@ -4500,7 +4508,7 @@
       </c>
       <c r="D33" s="80">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4519,7 +4527,9 @@
       <c r="Q33" s="55">
         <v>3</v>
       </c>
-      <c r="R33" s="63"/>
+      <c r="R33" s="63">
+        <v>2</v>
+      </c>
       <c r="S33" s="57"/>
       <c r="T33" s="58"/>
       <c r="U33" s="59"/>
@@ -5154,7 +5164,7 @@
       </c>
       <c r="D42" s="37">
         <f>D38+D35+D30+D18+D14+D9</f>
-        <v>27.75</v>
+        <v>35.75</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -5204,7 +5214,7 @@
       </c>
       <c r="R42" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S42" s="39">
         <f t="shared" si="3"/>
@@ -5486,7 +5496,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
@@ -5503,7 +5513,7 @@
       </c>
       <c r="D6" s="77">
         <f>Zeitplanung!D30</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="78"/>
     </row>

--- a/doc/time_management.xlsx
+++ b/doc/time_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lian Studer\Documents\Projects\gitty\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0746ED88-F579-413B-A200-376BFAF35DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B86DC65-D1E6-41C1-A58A-1DD997ECA329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1606,7 +1606,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
@@ -2113,8 +2113,8 @@
   </sheetPr>
   <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D29)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="D23" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3801,7 +3801,9 @@
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="61"/>
+      <c r="W23" s="61">
+        <v>3</v>
+      </c>
       <c r="X23" s="61"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
@@ -3854,7 +3856,7 @@
       </c>
       <c r="D24" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3874,7 +3876,9 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="55"/>
+      <c r="W24" s="55">
+        <v>2</v>
+      </c>
       <c r="X24" s="55"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
@@ -5164,7 +5168,7 @@
       </c>
       <c r="D42" s="37">
         <f>D38+D35+D30+D18+D14+D9</f>
-        <v>35.75</v>
+        <v>40.75</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -5234,7 +5238,7 @@
       </c>
       <c r="W42" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X42" s="39">
         <f t="shared" si="3"/>
@@ -5496,7 +5500,7 @@
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
